--- a/codesystems/qualificationStatus.xlsx
+++ b/codesystems/qualificationStatus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B35B5B-650B-9C4C-A5B1-FE0C02BD74C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B155550-456E-0948-BCE1-2B53DEF17CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>qualificationStatus</t>
   </si>
   <si>
-    <t>http://standards.digital.health.nz/fhir/CodeSystem/qualificationStatus</t>
-  </si>
-  <si>
-    <t>http://standards.digital.health.nz/fhir/ValueSet/qualificationStatus</t>
-  </si>
-  <si>
     <t>The status of the qualification</t>
   </si>
   <si>
@@ -56,6 +50,15 @@
   </si>
   <si>
     <t>Suspended</t>
+  </si>
+  <si>
+    <t>QualificationStatus</t>
+  </si>
+  <si>
+    <t>https://standards.digital.health.nz/fhir/cs/qualificationStatus</t>
+  </si>
+  <si>
+    <t>https://standards.digital.health.nz/fhir/ValueSet/qualificationStatus</t>
   </si>
 </sst>
 </file>
@@ -920,17 +923,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -940,39 +943,39 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/codesystems/qualificationStatus.xlsx
+++ b/codesystems/qualificationStatus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B155550-456E-0948-BCE1-2B53DEF17CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B35B5B-650B-9C4C-A5B1-FE0C02BD74C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>qualificationStatus</t>
   </si>
   <si>
+    <t>http://standards.digital.health.nz/fhir/CodeSystem/qualificationStatus</t>
+  </si>
+  <si>
+    <t>http://standards.digital.health.nz/fhir/ValueSet/qualificationStatus</t>
+  </si>
+  <si>
     <t>The status of the qualification</t>
   </si>
   <si>
@@ -50,15 +56,6 @@
   </si>
   <si>
     <t>Suspended</t>
-  </si>
-  <si>
-    <t>QualificationStatus</t>
-  </si>
-  <si>
-    <t>https://standards.digital.health.nz/fhir/cs/qualificationStatus</t>
-  </si>
-  <si>
-    <t>https://standards.digital.health.nz/fhir/ValueSet/qualificationStatus</t>
   </si>
 </sst>
 </file>
@@ -923,17 +920,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -943,39 +940,39 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
